--- a/data/trans_dic/P16A13-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.036860934237021</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08823406726060938</v>
+        <v>0.08823406726060939</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02944182129056709</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005589218372029858</v>
+        <v>0.005477158821410179</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0317733965554898</v>
+        <v>0.03138361766539867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02458418069701541</v>
+        <v>0.02333874343284573</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07014655618167458</v>
+        <v>0.06907725855089439</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01875894045533551</v>
+        <v>0.01870996513936477</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03287202670910686</v>
+        <v>0.03082199013234479</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03108183721663959</v>
+        <v>0.03270622780285989</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1065920548422898</v>
+        <v>0.1074513899845607</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0144662908115456</v>
+        <v>0.01382892447056513</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03573638520762551</v>
+        <v>0.03480200514275281</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03169949507906639</v>
+        <v>0.03197751712584746</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09336207179276571</v>
+        <v>0.09345792067933391</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02198543525247625</v>
+        <v>0.02178326728664567</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06712723767100411</v>
+        <v>0.06665582204072255</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05369572425481224</v>
+        <v>0.05401334843731995</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1126688301426276</v>
+        <v>0.1102194655154738</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04594396310042116</v>
+        <v>0.04398164027836149</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06762657149363238</v>
+        <v>0.06503400403612761</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06443822827743263</v>
+        <v>0.06499014098229655</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1385672108276046</v>
+        <v>0.141048280519316</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02844012739844697</v>
+        <v>0.02850166759591197</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05948815845558631</v>
+        <v>0.05897791755464737</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05419284568866155</v>
+        <v>0.05397184613621135</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1187881186944177</v>
+        <v>0.1201711976213658</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.03129313359351032</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06898808650055524</v>
+        <v>0.06898808650055525</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0223705716449329</v>
+        <v>0.02162373034383474</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02718331236535536</v>
+        <v>0.02606010348610574</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01899902117017787</v>
+        <v>0.01929720829391365</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04001326389783273</v>
+        <v>0.04085783095901065</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02001343934857268</v>
+        <v>0.02158147124899279</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04021614291674639</v>
+        <v>0.03726957728627139</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02242066965115693</v>
+        <v>0.02305417396700171</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07493363579213048</v>
+        <v>0.07365932817806596</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02392531369221154</v>
+        <v>0.02435685262268654</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03696559856951763</v>
+        <v>0.0365662078341078</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02391691533545659</v>
+        <v>0.02449944186108913</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05987432781449927</v>
+        <v>0.06015027423944872</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04664223637775729</v>
+        <v>0.0463361148824644</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05238065773037519</v>
+        <v>0.0529877610950089</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04063106693428616</v>
+        <v>0.04078471499940133</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06405745931274379</v>
+        <v>0.06562148428509233</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04332905082884072</v>
+        <v>0.04611157772932696</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07006361591917167</v>
+        <v>0.06749627496842836</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04878888182630357</v>
+        <v>0.04732071834400493</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09978299001238373</v>
+        <v>0.1020838430389229</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04048389866483271</v>
+        <v>0.04065348939754789</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05609555252079147</v>
+        <v>0.05785641642398863</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04074003395543529</v>
+        <v>0.04071894361200092</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07841238823543535</v>
+        <v>0.07674864304135233</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.04000164295006896</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05357235602491128</v>
+        <v>0.05357235602491127</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04119507649907228</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02500468780839052</v>
+        <v>0.02429883516526697</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0234858564016368</v>
+        <v>0.02456790963327418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01819770631275205</v>
+        <v>0.01812271652745001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03618172854099092</v>
+        <v>0.03491352263239562</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0326847876222897</v>
+        <v>0.03083299999461474</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03520360593865494</v>
+        <v>0.03465259340277269</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02738453928926784</v>
+        <v>0.02738990649793779</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04280676394087978</v>
+        <v>0.04107586264059169</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03223510026710395</v>
+        <v>0.03161068318597803</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03257095210994574</v>
+        <v>0.03272216180857232</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02634760853404338</v>
+        <v>0.02669686217613709</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04202487917137959</v>
+        <v>0.04209092327970501</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05406913135692375</v>
+        <v>0.05318698055918768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05032571436134222</v>
+        <v>0.05433092942518299</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0460679075394004</v>
+        <v>0.0472030960568452</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06572033501947459</v>
+        <v>0.06387719081410619</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.062465869581284</v>
+        <v>0.06228712767173269</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06671666139647696</v>
+        <v>0.06727248315959514</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05622733237715733</v>
+        <v>0.0558398499228386</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06831115374130553</v>
+        <v>0.06747808303240886</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05313607613543541</v>
+        <v>0.05248086323377416</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05358990130498461</v>
+        <v>0.05355407760560556</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04624277982181905</v>
+        <v>0.04638940383715121</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06295964410385217</v>
+        <v>0.06198690210998863</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.04310681402053507</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07791561953931479</v>
+        <v>0.07791561953931478</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03196363594916265</v>
@@ -1105,7 +1105,7 @@
         <v>0.03472179089720982</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07305555436981397</v>
+        <v>0.07305555436981398</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01585385916220687</v>
+        <v>0.01646090798774517</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03025755899088487</v>
+        <v>0.03081791899519429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01657824662141715</v>
+        <v>0.01597682832918201</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05471852589227146</v>
+        <v>0.05316899258221558</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02765503552724669</v>
+        <v>0.02842133133542613</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04924719977670312</v>
+        <v>0.04963770213300239</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0308889734721077</v>
+        <v>0.03114140356335978</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0667922569701751</v>
+        <v>0.06687652902761042</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02550198407232878</v>
+        <v>0.0248726127988328</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04474324170103214</v>
+        <v>0.04519722222399401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02650986166879516</v>
+        <v>0.02656516613572277</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06315903845025397</v>
+        <v>0.06404096090734758</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03675642689540919</v>
+        <v>0.0368385676335232</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06157469791020345</v>
+        <v>0.06239058767883508</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03700539156867515</v>
+        <v>0.03813968523318879</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08318973065251348</v>
+        <v>0.08581202257721562</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05153270341694699</v>
+        <v>0.0515501510271883</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07960268491494212</v>
+        <v>0.08043521265525505</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06015547958999756</v>
+        <v>0.05787340364584113</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09141666279502657</v>
+        <v>0.09301960423536419</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0414251436412798</v>
+        <v>0.0404429767517061</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06621208959529665</v>
+        <v>0.06675237688700621</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04404196305728836</v>
+        <v>0.04387552604511202</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08291066292924613</v>
+        <v>0.08296032860797166</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.04055174480053273</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08377960606340872</v>
+        <v>0.08377960606340873</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03126609310876499</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02139506969541165</v>
+        <v>0.02159167173352537</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0344888259280832</v>
+        <v>0.03415280071712933</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0239636136741377</v>
+        <v>0.02424248513943077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05563812536198146</v>
+        <v>0.05560020018748175</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0300568579742511</v>
+        <v>0.02958611464338556</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04580846032075054</v>
+        <v>0.04697211446203831</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03292580923295755</v>
+        <v>0.03403479737855798</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07682931801883078</v>
+        <v>0.0772519380729757</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02722938413961876</v>
+        <v>0.02689977386107404</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04232422446535741</v>
+        <v>0.04220513176260249</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03054788591089036</v>
+        <v>0.03074848681500247</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06839998696588194</v>
+        <v>0.06802977430701894</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0333456897099232</v>
+        <v>0.03283219483305003</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04933050139301037</v>
+        <v>0.04939892013606369</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03597046205924723</v>
+        <v>0.03584970607346078</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07045631766228219</v>
+        <v>0.07039514376320433</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04236896210187479</v>
+        <v>0.04269586779432826</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06247988093876546</v>
+        <v>0.06329534394806151</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04711529565979443</v>
+        <v>0.04798415050855793</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09062743622736577</v>
+        <v>0.09086544813709552</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03520760302642681</v>
+        <v>0.03590966422165227</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05273303213355225</v>
+        <v>0.0529046607918035</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03971582929541085</v>
+        <v>0.04029057894786873</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07828365837467685</v>
+        <v>0.07826262670632074</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3873</v>
+        <v>3796</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22159</v>
+        <v>21887</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16589</v>
+        <v>15749</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>48451</v>
+        <v>47712</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12913</v>
+        <v>12879</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22823</v>
+        <v>21399</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20913</v>
+        <v>22006</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>78144</v>
+        <v>78774</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19983</v>
+        <v>19103</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>49734</v>
+        <v>48434</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>42719</v>
+        <v>43094</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>132931</v>
+        <v>133068</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15236</v>
+        <v>15096</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46815</v>
+        <v>46486</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36234</v>
+        <v>36448</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>77821</v>
+        <v>76130</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>31626</v>
+        <v>30275</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>46952</v>
+        <v>45152</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43357</v>
+        <v>43728</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>101585</v>
+        <v>103404</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>39286</v>
+        <v>39371</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>82789</v>
+        <v>82079</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>73032</v>
+        <v>72735</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>169133</v>
+        <v>171103</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21516</v>
+        <v>20798</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>27671</v>
+        <v>26528</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19425</v>
+        <v>19730</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>41971</v>
+        <v>42856</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19381</v>
+        <v>20899</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>41333</v>
+        <v>38305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23383</v>
+        <v>24043</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>80242</v>
+        <v>78877</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>46180</v>
+        <v>47013</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>75621</v>
+        <v>74804</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>49397</v>
+        <v>50600</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>126919</v>
+        <v>127504</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44861</v>
+        <v>44566</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53321</v>
+        <v>53939</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41542</v>
+        <v>41700</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>67191</v>
+        <v>68831</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>41960</v>
+        <v>44654</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>72010</v>
+        <v>69371</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>50883</v>
+        <v>49351</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>106851</v>
+        <v>109315</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>78142</v>
+        <v>78469</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>114756</v>
+        <v>118358</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>84142</v>
+        <v>84099</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>166215</v>
+        <v>162688</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16966</v>
+        <v>16487</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17768</v>
+        <v>18587</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13822</v>
+        <v>13765</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29021</v>
+        <v>28004</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22351</v>
+        <v>21085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27328</v>
+        <v>26900</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21497</v>
+        <v>21501</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>34745</v>
+        <v>33340</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>43915</v>
+        <v>43065</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>49925</v>
+        <v>50157</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>40696</v>
+        <v>41235</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>67818</v>
+        <v>67924</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36686</v>
+        <v>36088</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38073</v>
+        <v>41103</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34991</v>
+        <v>35853</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52713</v>
+        <v>51235</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>42717</v>
+        <v>42594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>51791</v>
+        <v>52222</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>44139</v>
+        <v>43835</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>55446</v>
+        <v>54769</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>72390</v>
+        <v>71497</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>82144</v>
+        <v>82089</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>71425</v>
+        <v>71651</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>101601</v>
+        <v>100031</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14938</v>
+        <v>15510</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28561</v>
+        <v>29090</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15543</v>
+        <v>14979</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54175</v>
+        <v>52641</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28723</v>
+        <v>29519</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>51649</v>
+        <v>52058</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32241</v>
+        <v>32505</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>74609</v>
+        <v>74703</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>50515</v>
+        <v>49269</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>89160</v>
+        <v>90065</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>52525</v>
+        <v>52635</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>133082</v>
+        <v>134940</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>34633</v>
+        <v>34710</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>58123</v>
+        <v>58893</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>34695</v>
+        <v>35759</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>82363</v>
+        <v>84959</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>53522</v>
+        <v>53541</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>83484</v>
+        <v>84357</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>62789</v>
+        <v>60407</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>102115</v>
+        <v>103906</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>82056</v>
+        <v>80111</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>131941</v>
+        <v>133018</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>87262</v>
+        <v>86933</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>174700</v>
+        <v>174805</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>70080</v>
+        <v>70724</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>117808</v>
+        <v>116660</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>81341</v>
+        <v>82287</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>196501</v>
+        <v>196367</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>101568</v>
+        <v>99977</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>162488</v>
+        <v>166615</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>116707</v>
+        <v>120638</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>286777</v>
+        <v>288354</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>181204</v>
+        <v>179011</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>294701</v>
+        <v>293872</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>211968</v>
+        <v>213360</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>496886</v>
+        <v>494197</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>109225</v>
+        <v>107543</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>168504</v>
+        <v>168738</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>122096</v>
+        <v>121686</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>248836</v>
+        <v>248620</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>143173</v>
+        <v>144278</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>221623</v>
+        <v>224516</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>167002</v>
+        <v>170082</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>338280</v>
+        <v>339168</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>234297</v>
+        <v>238969</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>367177</v>
+        <v>368372</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>275584</v>
+        <v>279572</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>568685</v>
+        <v>568533</v>
       </c>
     </row>
     <row r="24">
